--- a/04 Financial Forensics/Zipf's Law.xlsx
+++ b/04 Financial Forensics/Zipf's Law.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaiser/Dropbox/應用程式/Overleaf/Financial Data Analytics/chapters/04_Financial_Forensic/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2DE55-5B78-A543-B863-7136146B71A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571A532-8708-2E43-9D6D-32558AF718F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{91BD08C9-8DB7-834A-91AF-CB5290FD3B8B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" activeTab="18" xr2:uid="{91BD08C9-8DB7-834A-91AF-CB5290FD3B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="20" r:id="rId1"/>
@@ -31,9 +31,8 @@
     <sheet name="Russia" sheetId="8" r:id="rId16"/>
     <sheet name="Spain" sheetId="7" r:id="rId17"/>
     <sheet name="Sweden" sheetId="6" r:id="rId18"/>
-    <sheet name="UK_windows" sheetId="21" r:id="rId19"/>
-    <sheet name="UK" sheetId="5" r:id="rId20"/>
-    <sheet name="USA" sheetId="4" r:id="rId21"/>
+    <sheet name="UK" sheetId="5" r:id="rId19"/>
+    <sheet name="USA" sheetId="4" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="504">
   <si>
     <t>Country</t>
   </si>
@@ -1730,31 +1729,16 @@
     </r>
   </si>
   <si>
-    <t>UK_windows (United Kingdom) as of May 11, 2020, by country/region*</t>
-  </si>
-  <si>
-    <t>UK_windows</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>macOS</t>
-  </si>
-  <si>
     <t>0.70.6</t>
   </si>
   <si>
-    <t>Different results obtained from windows and macOS operating system in poweRlaw</t>
-  </si>
-  <si>
     <t>poweRlaw version</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>Netherlands is adopted as an illustration, its results do not appear in the paper</t>
+  </si>
+  <si>
+    <t>Results might differ when using different machines with poweRlaw</t>
   </si>
 </sst>
 </file>
@@ -2236,20 +2220,20 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2257,7 +2241,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2265,7 +2249,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2273,7 +2257,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2281,7 +2265,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>488</v>
       </c>
@@ -2295,7 +2279,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>495</v>
       </c>
@@ -2312,7 +2296,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>496</v>
       </c>
@@ -2329,7 +2313,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2337,76 +2321,67 @@
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="F13" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" t="s">
         <v>17</v>
       </c>
+      <c r="D14">
+        <v>11468</v>
+      </c>
       <c r="E14">
-        <v>11468</v>
-      </c>
-      <c r="F14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" t="s">
         <v>17</v>
       </c>
+      <c r="D15">
+        <v>12366</v>
+      </c>
       <c r="E15">
-        <v>12366</v>
-      </c>
-      <c r="F15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>3.4611907472577901</v>
       </c>
     </row>
@@ -2465,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.4658077977723973</v>
       </c>
     </row>
@@ -2480,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.337042045961427</v>
       </c>
     </row>
@@ -2495,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.2972548203436052</v>
       </c>
     </row>
@@ -2510,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.701084125825945</v>
       </c>
     </row>
@@ -2525,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6472208108177533</v>
       </c>
     </row>
@@ -2540,7 +2515,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6056952853506044</v>
       </c>
     </row>
@@ -2555,7 +2530,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.0455024633541612</v>
       </c>
     </row>
@@ -2570,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.0245779949082321</v>
       </c>
     </row>
@@ -2585,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.96288911434424307</v>
       </c>
     </row>
@@ -2600,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.54138827417615687</v>
       </c>
     </row>
@@ -2615,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.21274484409331063</v>
       </c>
     </row>
@@ -2630,7 +2605,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.19753097545748322</v>
       </c>
     </row>
@@ -2645,7 +2620,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.000723147624516E-2</v>
       </c>
     </row>
@@ -2660,7 +2635,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2675,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.30702503529491221</v>
       </c>
     </row>
@@ -2690,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.61310447288640901</v>
       </c>
     </row>
@@ -2705,7 +2680,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4154509454113464</v>
       </c>
     </row>
@@ -2720,7 +2695,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4891038549861122</v>
       </c>
     </row>
@@ -2735,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5347143662381644</v>
       </c>
     </row>
@@ -2750,7 +2725,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.3258419551583129</v>
       </c>
     </row>
@@ -2765,7 +2740,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.4022149339428873</v>
       </c>
     </row>
@@ -2780,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.4678122164287002</v>
       </c>
     </row>
@@ -2795,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.5380164751019487</v>
       </c>
     </row>
@@ -2810,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.8076800420510515</v>
       </c>
     </row>
@@ -2825,7 +2800,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-3.0488420988679397</v>
       </c>
     </row>
@@ -2840,7 +2815,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-3.9804003028728832</v>
       </c>
     </row>
@@ -2855,7 +2830,7 @@
         <v>28</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-4.3481250829981999</v>
       </c>
     </row>
@@ -2870,7 +2845,7 @@
         <v>29</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-4.5994395112791064</v>
       </c>
     </row>
@@ -2885,7 +2860,7 @@
         <v>30</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-5.8522024797744745</v>
       </c>
     </row>
@@ -2900,7 +2875,7 @@
         <v>31</v>
       </c>
       <c r="D32" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-6.5453496603344199</v>
       </c>
     </row>
@@ -2915,7 +2890,7 @@
         <v>32</v>
       </c>
       <c r="D33" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-6.5453496603344199</v>
       </c>
     </row>
@@ -2930,7 +2905,7 @@
         <v>33</v>
       </c>
       <c r="D34" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-6.5453496603344199</v>
       </c>
     </row>
@@ -2985,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>3.460461031424769</v>
       </c>
     </row>
@@ -3000,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.4148579000179495</v>
       </c>
     </row>
@@ -3015,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.3465498886825316</v>
       </c>
     </row>
@@ -3030,7 +3005,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.9860298308041688</v>
       </c>
     </row>
@@ -3045,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.3363711680683092</v>
       </c>
     </row>
@@ -3060,7 +3035,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.2336976831593667</v>
       </c>
     </row>
@@ -3075,7 +3050,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.028007365357583</v>
       </c>
     </row>
@@ -3090,7 +3065,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.93371196951222935</v>
       </c>
     </row>
@@ -3105,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.58180718523780151</v>
       </c>
     </row>
@@ -3120,7 +3095,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.52019065486737404</v>
       </c>
     </row>
@@ -3135,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.51323329841748588</v>
       </c>
     </row>
@@ -3150,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.2609875545861442</v>
       </c>
     </row>
@@ -3165,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.19890184793546872</v>
       </c>
     </row>
@@ -3180,7 +3155,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.18897382403553742</v>
       </c>
     </row>
@@ -3195,7 +3170,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -3210,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.59967666730432256</v>
       </c>
     </row>
@@ -3225,7 +3200,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.64977788883427223</v>
       </c>
     </row>
@@ -3240,7 +3215,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.79798942722456978</v>
       </c>
     </row>
@@ -3255,7 +3230,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.8189326010698128</v>
       </c>
     </row>
@@ -3270,7 +3245,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.8966017158926789</v>
       </c>
     </row>
@@ -3285,7 +3260,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.9044040961768642</v>
       </c>
     </row>
@@ -3340,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.8953530882463694</v>
       </c>
     </row>
@@ -3355,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.8043813100406423</v>
       </c>
     </row>
@@ -3370,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.1207128734352407</v>
       </c>
     </row>
@@ -3385,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0141536761834837</v>
       </c>
     </row>
@@ -3400,7 +3375,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.8084729502017955</v>
       </c>
     </row>
@@ -3415,7 +3390,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.3043772386520045</v>
       </c>
     </row>
@@ -3430,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.2543668180773428</v>
       </c>
     </row>
@@ -3445,7 +3420,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.0526271754262861</v>
       </c>
     </row>
@@ -3460,7 +3435,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.86322176374392701</v>
       </c>
     </row>
@@ -3475,7 +3450,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.55478874718710713</v>
       </c>
     </row>
@@ -3490,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.3071541758646017</v>
       </c>
     </row>
@@ -3505,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.21184399606027693</v>
       </c>
     </row>
@@ -3520,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>6.5240521868401125E-2</v>
       </c>
     </row>
@@ -3535,7 +3510,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -3550,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5982646118359751</v>
       </c>
     </row>
@@ -3565,7 +3540,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.7160476474923585</v>
       </c>
     </row>
@@ -3614,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.8421684776049867</v>
       </c>
     </row>
@@ -3629,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.3585495908871161</v>
       </c>
     </row>
@@ -3644,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.4365561959007787</v>
       </c>
     </row>
@@ -3659,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.105461630513684</v>
       </c>
     </row>
@@ -3674,7 +3649,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.95736011847087887</v>
       </c>
     </row>
@@ -3689,7 +3664,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.84286980887147145</v>
       </c>
     </row>
@@ -3704,7 +3679,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.65461351655770184</v>
       </c>
     </row>
@@ -3719,7 +3694,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.6528262059836063</v>
       </c>
     </row>
@@ -3734,7 +3709,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.37641018806046489</v>
       </c>
     </row>
@@ -3749,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.34283389252686014</v>
       </c>
     </row>
@@ -3764,7 +3739,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.26157092844809515</v>
       </c>
     </row>
@@ -3779,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.17455955145846502</v>
       </c>
     </row>
@@ -3794,7 +3769,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.13181170174499535</v>
       </c>
     </row>
@@ -3809,7 +3784,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>8.8728115608684099E-2</v>
       </c>
     </row>
@@ -3824,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -3839,7 +3814,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-8.6281812233384159E-3</v>
       </c>
     </row>
@@ -3854,7 +3829,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.3841051411871419E-2</v>
       </c>
     </row>
@@ -3869,7 +3844,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.7331456351640462E-2</v>
       </c>
     </row>
@@ -3884,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-7.3051168884957107E-2</v>
       </c>
     </row>
@@ -3899,7 +3874,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.14191201845607804</v>
       </c>
     </row>
@@ -3914,7 +3889,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.3285995278093008</v>
       </c>
     </row>
@@ -3929,7 +3904,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.38001844244700056</v>
       </c>
     </row>
@@ -3944,7 +3919,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.41063307826660722</v>
       </c>
     </row>
@@ -3959,7 +3934,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.50283927213334145</v>
       </c>
     </row>
@@ -3974,7 +3949,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.73884933404080133</v>
       </c>
     </row>
@@ -3989,7 +3964,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.81351086280982088</v>
       </c>
     </row>
@@ -4004,7 +3979,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.83704136022001485</v>
       </c>
     </row>
@@ -4019,7 +3994,7 @@
         <v>28</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.8941997740599632</v>
       </c>
     </row>
@@ -4034,7 +4009,7 @@
         <v>29</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.0241361957666273</v>
       </c>
     </row>
@@ -4049,7 +4024,7 @@
         <v>30</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.3102246423831305</v>
       </c>
     </row>
@@ -4064,7 +4039,7 @@
         <v>31</v>
       </c>
       <c r="D32" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.6042965129336819</v>
       </c>
     </row>
@@ -4079,7 +4054,7 @@
         <v>32</v>
       </c>
       <c r="D33" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.5598079579611186</v>
       </c>
     </row>
@@ -4124,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.70386539677996929</v>
       </c>
     </row>
@@ -4139,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.67517817061504992</v>
       </c>
     </row>
@@ -4154,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.34916039189769599</v>
       </c>
     </row>
@@ -4169,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.21201103375034691</v>
       </c>
     </row>
@@ -4184,7 +4159,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -4199,7 +4174,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.31652727576609863</v>
       </c>
     </row>
@@ -4214,7 +4189,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.42910904207908462</v>
       </c>
     </row>
@@ -4229,7 +4204,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.666142708665908</v>
       </c>
     </row>
@@ -4244,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.9582362580935717</v>
       </c>
     </row>
@@ -4259,7 +4234,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.0437871411767405</v>
       </c>
     </row>
@@ -4274,7 +4249,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.1886408336448282</v>
       </c>
     </row>
@@ -4289,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.5389738710582765</v>
       </c>
     </row>
@@ -4341,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.1589767124191672</v>
       </c>
     </row>
@@ -4356,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.3941787646440398</v>
       </c>
     </row>
@@ -4371,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.71274284350499606</v>
       </c>
     </row>
@@ -4386,7 +4361,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.58455659308772567</v>
       </c>
     </row>
@@ -4401,7 +4376,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.49540388765675303</v>
       </c>
     </row>
@@ -4416,7 +4391,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.47263867688374095</v>
       </c>
     </row>
@@ -4431,7 +4406,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.42203766358995143</v>
       </c>
     </row>
@@ -4446,7 +4421,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.40458521363872535</v>
       </c>
     </row>
@@ -4461,7 +4436,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.31436767808346211</v>
       </c>
     </row>
@@ -4476,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.30468706037273918</v>
       </c>
     </row>
@@ -4491,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.25482628439244603</v>
       </c>
     </row>
@@ -4506,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.21944278050312871</v>
       </c>
     </row>
@@ -4521,7 +4496,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.20450120050492959</v>
       </c>
     </row>
@@ -4536,7 +4511,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.11219725014953141</v>
       </c>
     </row>
@@ -4551,7 +4526,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.3469134540847314E-2</v>
       </c>
     </row>
@@ -4566,7 +4541,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -4581,7 +4556,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.153711022752689</v>
       </c>
     </row>
@@ -4596,7 +4571,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.2471767507583662</v>
       </c>
     </row>
@@ -4611,7 +4586,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.33173413878642855</v>
       </c>
     </row>
@@ -4626,7 +4601,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.40810711757100293</v>
       </c>
     </row>
@@ -4641,7 +4616,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.41607528722018028</v>
       </c>
     </row>
@@ -4656,7 +4631,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.53485882321014699</v>
       </c>
     </row>
@@ -4671,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.61452622594401785</v>
       </c>
     </row>
@@ -4686,7 +4661,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.73903917381660023</v>
       </c>
     </row>
@@ -4701,7 +4676,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.91365568423614985</v>
       </c>
     </row>
@@ -4716,7 +4691,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.92690091098617078</v>
       </c>
     </row>
@@ -4731,7 +4706,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.0322614266439967</v>
       </c>
     </row>
@@ -4746,7 +4721,7 @@
         <v>28</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.2461883228532828</v>
       </c>
     </row>
@@ -4761,7 +4736,7 @@
         <v>29</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.2740971109703594</v>
       </c>
     </row>
@@ -4776,7 +4751,7 @@
         <v>30</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4377265347521613</v>
       </c>
     </row>
@@ -4791,7 +4766,7 @@
         <v>31</v>
       </c>
       <c r="D32" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.518695597285828</v>
       </c>
     </row>
@@ -4806,7 +4781,7 @@
         <v>32</v>
       </c>
       <c r="D33" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.530816957818173</v>
       </c>
     </row>
@@ -4821,7 +4796,7 @@
         <v>33</v>
       </c>
       <c r="D34" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.530816957818173</v>
       </c>
     </row>
@@ -4836,7 +4811,7 @@
         <v>34</v>
       </c>
       <c r="D35" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">LN(B35)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D35" ca="1">LN(B35)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5808273783928346</v>
       </c>
     </row>
@@ -4851,7 +4826,7 @@
         <v>35</v>
       </c>
       <c r="D36" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">LN(B36)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D36" ca="1">LN(B36)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.6748563280411108</v>
       </c>
     </row>
@@ -4866,7 +4841,7 @@
         <v>36</v>
       </c>
       <c r="D37" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">LN(B37)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D37" ca="1">LN(B37)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.7786531217227548</v>
       </c>
     </row>
@@ -4881,7 +4856,7 @@
         <v>37</v>
       </c>
       <c r="D38" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">LN(B38)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D38" ca="1">LN(B38)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.8770931945360072</v>
       </c>
     </row>
@@ -4896,7 +4871,7 @@
         <v>38</v>
       </c>
       <c r="D39" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">LN(B39)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D39" ca="1">LN(B39)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.9485521585181518</v>
       </c>
     </row>
@@ -4911,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="D40" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">LN(B40)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D40" ca="1">LN(B40)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.0057105723581006</v>
       </c>
     </row>
@@ -4926,7 +4901,7 @@
         <v>40</v>
       </c>
       <c r="D41" cm="1">
-        <f t="array" aca="1" ref="D41" ca="1">LN(B41)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D41" ca="1">LN(B41)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.0057105723581006</v>
       </c>
     </row>
@@ -4941,7 +4916,7 @@
         <v>41</v>
       </c>
       <c r="D42" cm="1">
-        <f t="array" aca="1" ref="D42" ca="1">LN(B42)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D42" ca="1">LN(B42)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.6794396670609442</v>
       </c>
     </row>
@@ -4956,7 +4931,7 @@
         <v>42</v>
       </c>
       <c r="D43" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">LN(B43)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D43" ca="1">LN(B43)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.7594823747344805</v>
       </c>
     </row>
@@ -4971,7 +4946,7 @@
         <v>43</v>
       </c>
       <c r="D44" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">LN(B44)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D44" ca="1">LN(B44)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.993097225915986</v>
       </c>
     </row>
@@ -5018,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>5.0570457888964668</v>
       </c>
     </row>
@@ -5033,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>3.3811356534447174</v>
       </c>
     </row>
@@ -5048,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.3444428203878331</v>
       </c>
     </row>
@@ -5063,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.8854589947979878</v>
       </c>
     </row>
@@ -5078,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.3193349499879403</v>
       </c>
     </row>
@@ -5093,7 +5068,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.1458386021546128</v>
       </c>
     </row>
@@ -5108,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.030266875928282</v>
       </c>
     </row>
@@ -5123,7 +5098,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.0130130088771168</v>
       </c>
     </row>
@@ -5138,7 +5113,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.93731175712794368</v>
       </c>
     </row>
@@ -5153,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.92454671272117395</v>
       </c>
     </row>
@@ -5168,7 +5143,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.91317708120087548</v>
       </c>
     </row>
@@ -5183,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.86962266679047584</v>
       </c>
     </row>
@@ -5198,7 +5173,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.86417899520929886</v>
       </c>
     </row>
@@ -5213,7 +5188,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.82009933489645803</v>
       </c>
     </row>
@@ -5228,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.80283768650315324</v>
       </c>
     </row>
@@ -5243,7 +5218,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.75772618015286408</v>
       </c>
     </row>
@@ -5258,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.75346697079346736</v>
       </c>
     </row>
@@ -5273,7 +5248,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.69960298090281636</v>
       </c>
     </row>
@@ -5288,7 +5263,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.6528377921131554</v>
       </c>
     </row>
@@ -5303,7 +5278,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.61504559287475313</v>
       </c>
     </row>
@@ -5318,7 +5293,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.5959569963122302</v>
       </c>
     </row>
@@ -5333,7 +5308,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.58591387029005482</v>
       </c>
     </row>
@@ -5348,7 +5323,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.52956093373892354</v>
       </c>
     </row>
@@ -5363,7 +5338,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.51341294733094145</v>
       </c>
     </row>
@@ -5378,7 +5353,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.50719208745583888</v>
       </c>
     </row>
@@ -5393,7 +5368,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.50171690756774989</v>
       </c>
     </row>
@@ -5408,7 +5383,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.46740959406868843</v>
       </c>
     </row>
@@ -5423,7 +5398,7 @@
         <v>28</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.4625275664713806</v>
       </c>
     </row>
@@ -5438,7 +5413,7 @@
         <v>29</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.46171157295405063</v>
       </c>
     </row>
@@ -5453,7 +5428,7 @@
         <v>30</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.45104261660448319</v>
       </c>
     </row>
@@ -5468,7 +5443,7 @@
         <v>31</v>
       </c>
       <c r="D32" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.39679202685473491</v>
       </c>
     </row>
@@ -5483,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D33" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.38540337989072704</v>
       </c>
     </row>
@@ -5498,7 +5473,7 @@
         <v>33</v>
       </c>
       <c r="D34" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.37655376461374424</v>
       </c>
     </row>
@@ -5513,7 +5488,7 @@
         <v>34</v>
       </c>
       <c r="D35" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">LN(B35)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D35" ca="1">LN(B35)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.33850569697621413</v>
       </c>
     </row>
@@ -5528,7 +5503,7 @@
         <v>35</v>
       </c>
       <c r="D36" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">LN(B36)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D36" ca="1">LN(B36)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.29702944107445095</v>
       </c>
     </row>
@@ -5543,7 +5518,7 @@
         <v>36</v>
       </c>
       <c r="D37" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">LN(B37)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D37" ca="1">LN(B37)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.23550210201800592</v>
       </c>
     </row>
@@ -5558,7 +5533,7 @@
         <v>37</v>
       </c>
       <c r="D38" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">LN(B38)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D38" ca="1">LN(B38)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.22210674458576918</v>
       </c>
     </row>
@@ -5573,7 +5548,7 @@
         <v>38</v>
       </c>
       <c r="D39" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">LN(B39)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D39" ca="1">LN(B39)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.212726790455954</v>
       </c>
     </row>
@@ -5588,7 +5563,7 @@
         <v>39</v>
       </c>
       <c r="D40" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">LN(B40)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D40" ca="1">LN(B40)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.20114161612072401</v>
       </c>
     </row>
@@ -5603,7 +5578,7 @@
         <v>40</v>
       </c>
       <c r="D41" cm="1">
-        <f t="array" aca="1" ref="D41" ca="1">LN(B41)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D41" ca="1">LN(B41)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.20008173260868123</v>
       </c>
     </row>
@@ -5618,7 +5593,7 @@
         <v>41</v>
       </c>
       <c r="D42" cm="1">
-        <f t="array" aca="1" ref="D42" ca="1">LN(B42)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D42" ca="1">LN(B42)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.18834826466081456</v>
       </c>
     </row>
@@ -5633,7 +5608,7 @@
         <v>42</v>
       </c>
       <c r="D43" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">LN(B43)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D43" ca="1">LN(B43)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.16555834723518181</v>
       </c>
     </row>
@@ -5648,7 +5623,7 @@
         <v>43</v>
       </c>
       <c r="D44" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">LN(B44)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D44" ca="1">LN(B44)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.16555834723518181</v>
       </c>
     </row>
@@ -5663,7 +5638,7 @@
         <v>44</v>
       </c>
       <c r="D45" cm="1">
-        <f t="array" aca="1" ref="D45" ca="1">LN(B45)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D45" ca="1">LN(B45)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.15562997003784762</v>
       </c>
     </row>
@@ -5678,7 +5653,7 @@
         <v>45</v>
       </c>
       <c r="D46" cm="1">
-        <f t="array" aca="1" ref="D46" ca="1">LN(B46)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D46" ca="1">LN(B46)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.13773240058030467</v>
       </c>
     </row>
@@ -5693,7 +5668,7 @@
         <v>46</v>
       </c>
       <c r="D47" cm="1">
-        <f t="array" aca="1" ref="D47" ca="1">LN(B47)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D47" ca="1">LN(B47)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.12638154091161535</v>
       </c>
     </row>
@@ -5708,7 +5683,7 @@
         <v>47</v>
       </c>
       <c r="D48" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">LN(B48)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D48" ca="1">LN(B48)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>9.8601976804538971E-2</v>
       </c>
     </row>
@@ -5723,7 +5698,7 @@
         <v>48</v>
       </c>
       <c r="D49" cm="1">
-        <f t="array" aca="1" ref="D49" ca="1">LN(B49)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D49" ca="1">LN(B49)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>9.2716144627278396E-2</v>
       </c>
     </row>
@@ -5738,7 +5713,7 @@
         <v>49</v>
       </c>
       <c r="D50" cm="1">
-        <f t="array" aca="1" ref="D50" ca="1">LN(B50)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D50" ca="1">LN(B50)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>8.0839520464699E-2</v>
       </c>
     </row>
@@ -5753,7 +5728,7 @@
         <v>50</v>
       </c>
       <c r="D51" cm="1">
-        <f t="array" aca="1" ref="D51" ca="1">LN(B51)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D51" ca="1">LN(B51)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>6.275584503140319E-2</v>
       </c>
     </row>
@@ -5768,7 +5743,7 @@
         <v>51</v>
       </c>
       <c r="D52" cm="1">
-        <f t="array" aca="1" ref="D52" ca="1">LN(B52)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D52" ca="1">LN(B52)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>5.1746559523033753E-2</v>
       </c>
     </row>
@@ -5783,7 +5758,7 @@
         <v>52</v>
       </c>
       <c r="D53" cm="1">
-        <f t="array" aca="1" ref="D53" ca="1">LN(B53)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D53" ca="1">LN(B53)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>4.3099192481851567E-2</v>
       </c>
     </row>
@@ -5798,7 +5773,7 @@
         <v>53</v>
       </c>
       <c r="D54" cm="1">
-        <f t="array" aca="1" ref="D54" ca="1">LN(B54)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D54" ca="1">LN(B54)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.159059981490973E-2</v>
       </c>
     </row>
@@ -5813,7 +5788,7 @@
         <v>54</v>
       </c>
       <c r="D55" cm="1">
-        <f t="array" aca="1" ref="D55" ca="1">LN(B55)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D55" ca="1">LN(B55)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -5828,7 +5803,7 @@
         <v>55</v>
       </c>
       <c r="D56" cm="1">
-        <f t="array" aca="1" ref="D56" ca="1">LN(B56)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D56" ca="1">LN(B56)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-6.0058072491257164E-2</v>
       </c>
     </row>
@@ -5843,7 +5818,7 @@
         <v>56</v>
       </c>
       <c r="D57" cm="1">
-        <f t="array" aca="1" ref="D57" ca="1">LN(B57)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D57" ca="1">LN(B57)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.15826101552226923</v>
       </c>
     </row>
@@ -5858,7 +5833,7 @@
         <v>57</v>
       </c>
       <c r="D58" cm="1">
-        <f t="array" aca="1" ref="D58" ca="1">LN(B58)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D58" ca="1">LN(B58)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.2421045639554622</v>
       </c>
     </row>
@@ -5873,7 +5848,7 @@
         <v>58</v>
       </c>
       <c r="D59" cm="1">
-        <f t="array" aca="1" ref="D59" ca="1">LN(B59)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D59" ca="1">LN(B59)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.34088610851524592</v>
       </c>
     </row>
@@ -5888,7 +5863,7 @@
         <v>59</v>
       </c>
       <c r="D60" cm="1">
-        <f t="array" aca="1" ref="D60" ca="1">LN(B60)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D60" ca="1">LN(B60)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.35556527117829528</v>
       </c>
     </row>
@@ -5903,7 +5878,7 @@
         <v>60</v>
       </c>
       <c r="D61" cm="1">
-        <f t="array" aca="1" ref="D61" ca="1">LN(B61)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D61" ca="1">LN(B61)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.42839437992503715</v>
       </c>
     </row>
@@ -5918,7 +5893,7 @@
         <v>61</v>
       </c>
       <c r="D62" cm="1">
-        <f t="array" aca="1" ref="D62" ca="1">LN(B62)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D62" ca="1">LN(B62)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.44039452392814749</v>
       </c>
     </row>
@@ -5933,7 +5908,7 @@
         <v>62</v>
       </c>
       <c r="D63" cm="1">
-        <f t="array" aca="1" ref="D63" ca="1">LN(B63)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D63" ca="1">LN(B63)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.44644903283685355</v>
       </c>
     </row>
@@ -5948,7 +5923,7 @@
         <v>63</v>
       </c>
       <c r="D64" cm="1">
-        <f t="array" aca="1" ref="D64" ca="1">LN(B64)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D64" ca="1">LN(B64)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.66253254474033874</v>
       </c>
     </row>
@@ -5963,7 +5938,7 @@
         <v>64</v>
       </c>
       <c r="D65" cm="1">
-        <f t="array" aca="1" ref="D65" ca="1">LN(B65)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D65" ca="1">LN(B65)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.67009878512365439</v>
       </c>
     </row>
@@ -5978,7 +5953,7 @@
         <v>65</v>
       </c>
       <c r="D66" cm="1">
-        <f t="array" aca="1" ref="D66" ca="1">LN(B66)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D66" ca="1">LN(B66)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.6983419974370495</v>
       </c>
     </row>
@@ -5993,7 +5968,7 @@
         <v>66</v>
       </c>
       <c r="D67" cm="1">
-        <f t="array" aca="1" ref="D67" ca="1">LN(B67)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D67" ca="1">LN(B67)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.75183068238803585</v>
       </c>
     </row>
@@ -6008,7 +5983,7 @@
         <v>67</v>
       </c>
       <c r="D68" cm="1">
-        <f t="array" aca="1" ref="D68" ca="1">LN(B68)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D68" ca="1">LN(B68)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.84084206004433248</v>
       </c>
     </row>
@@ -6023,7 +5998,7 @@
         <v>68</v>
       </c>
       <c r="D69" cm="1">
-        <f t="array" aca="1" ref="D69" ca="1">LN(B69)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D69" ca="1">LN(B69)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.84384958110828823</v>
       </c>
     </row>
@@ -6038,7 +6013,7 @@
         <v>69</v>
       </c>
       <c r="D70" cm="1">
-        <f t="array" aca="1" ref="D70" ca="1">LN(B70)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D70" ca="1">LN(B70)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.85597094164063225</v>
       </c>
     </row>
@@ -6053,7 +6028,7 @@
         <v>70</v>
       </c>
       <c r="D71" cm="1">
-        <f t="array" aca="1" ref="D71" ca="1">LN(B71)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D71" ca="1">LN(B71)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.89008277614749609</v>
       </c>
     </row>
@@ -6068,7 +6043,7 @@
         <v>71</v>
       </c>
       <c r="D72" cm="1">
-        <f t="array" aca="1" ref="D72" ca="1">LN(B72)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D72" ca="1">LN(B72)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.96540478268609498</v>
       </c>
     </row>
@@ -6083,7 +6058,7 @@
         <v>72</v>
       </c>
       <c r="D73" cm="1">
-        <f t="array" aca="1" ref="D73" ca="1">LN(B73)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D73" ca="1">LN(B73)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.0883029190092488</v>
       </c>
     </row>
@@ -6098,7 +6073,7 @@
         <v>73</v>
       </c>
       <c r="D74" cm="1">
-        <f t="array" aca="1" ref="D74" ca="1">LN(B74)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D74" ca="1">LN(B74)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.119555462513353</v>
       </c>
     </row>
@@ -6113,7 +6088,7 @@
         <v>74</v>
       </c>
       <c r="D75" cm="1">
-        <f t="array" aca="1" ref="D75" ca="1">LN(B75)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D75" ca="1">LN(B75)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.3407168526235713</v>
       </c>
     </row>
@@ -6128,7 +6103,7 @@
         <v>75</v>
       </c>
       <c r="D76" cm="1">
-        <f t="array" aca="1" ref="D76" ca="1">LN(B76)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D76" ca="1">LN(B76)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4125425871948272</v>
       </c>
     </row>
@@ -6143,7 +6118,7 @@
         <v>76</v>
       </c>
       <c r="D77" cm="1">
-        <f t="array" aca="1" ref="D77" ca="1">LN(B77)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D77" ca="1">LN(B77)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5073209935221161</v>
       </c>
     </row>
@@ -6158,7 +6133,7 @@
         <v>77</v>
       </c>
       <c r="D78" cm="1">
-        <f t="array" aca="1" ref="D78" ca="1">LN(B78)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D78" ca="1">LN(B78)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5190858351017029</v>
       </c>
     </row>
@@ -6173,7 +6148,7 @@
         <v>78</v>
       </c>
       <c r="D79" cm="1">
-        <f t="array" aca="1" ref="D79" ca="1">LN(B79)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D79" ca="1">LN(B79)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5927387446764687</v>
       </c>
     </row>
@@ -6188,7 +6163,7 @@
         <v>79</v>
       </c>
       <c r="D80" cm="1">
-        <f t="array" aca="1" ref="D80" ca="1">LN(B80)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D80" ca="1">LN(B80)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.6791712504487757</v>
       </c>
     </row>
@@ -6203,7 +6178,7 @@
         <v>80</v>
       </c>
       <c r="D81" cm="1">
-        <f t="array" aca="1" ref="D81" ca="1">LN(B81)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D81" ca="1">LN(B81)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.7891721456631045</v>
       </c>
     </row>
@@ -6218,7 +6193,7 @@
         <v>81</v>
       </c>
       <c r="D82" cm="1">
-        <f t="array" aca="1" ref="D82" ca="1">LN(B82)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D82" ca="1">LN(B82)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.218167751181463</v>
       </c>
     </row>
@@ -6233,7 +6208,7 @@
         <v>82</v>
       </c>
       <c r="D83" cm="1">
-        <f t="array" aca="1" ref="D83" ca="1">LN(B83)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D83" ca="1">LN(B83)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.6236328592896268</v>
       </c>
     </row>
@@ -6248,7 +6223,7 @@
         <v>83</v>
       </c>
       <c r="D84" cm="1">
-        <f t="array" aca="1" ref="D84" ca="1">LN(B84)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D84" ca="1">LN(B84)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.7369615445966304</v>
       </c>
     </row>
@@ -6263,7 +6238,7 @@
         <v>84</v>
       </c>
       <c r="D85" cm="1">
-        <f t="array" aca="1" ref="D85" ca="1">LN(B85)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D85" ca="1">LN(B85)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.9354124833204684</v>
       </c>
     </row>
@@ -6278,7 +6253,7 @@
         <v>85</v>
       </c>
       <c r="D86" cm="1">
-        <f t="array" aca="1" ref="D86" ca="1">LN(B86)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D86" ca="1">LN(B86)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-3.2149973455396301</v>
       </c>
     </row>
@@ -6323,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.9449102181979736</v>
       </c>
     </row>
@@ -6338,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.7809017559241749</v>
       </c>
     </row>
@@ -6353,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.66398868565647362</v>
       </c>
     </row>
@@ -6368,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.57012360481051871</v>
       </c>
     </row>
@@ -6383,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.34935080321616319</v>
       </c>
     </row>
@@ -6398,7 +6373,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.27998380502602771</v>
       </c>
     </row>
@@ -6413,7 +6388,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.14492889942154363</v>
       </c>
     </row>
@@ -6428,7 +6403,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -6443,7 +6418,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.55026879914646187</v>
       </c>
     </row>
@@ -6458,7 +6433,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.60353809704758099</v>
       </c>
     </row>
@@ -6473,7 +6448,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.84075382587661274</v>
       </c>
     </row>
@@ -6488,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.1578050977871976</v>
       </c>
     </row>
@@ -6503,7 +6478,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.3742054201012435</v>
       </c>
     </row>
@@ -6518,7 +6493,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4101478037936701</v>
       </c>
     </row>
@@ -6533,7 +6508,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4198953333429243</v>
       </c>
     </row>
@@ -6548,7 +6523,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5596795377646337</v>
       </c>
     </row>
@@ -6563,7 +6538,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.8123114892927807</v>
       </c>
     </row>
@@ -6578,7 +6553,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-4.357677975529783</v>
       </c>
     </row>
@@ -6593,7 +6568,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-4.4006030202468169</v>
       </c>
     </row>
@@ -6642,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.4794050009911741</v>
       </c>
     </row>
@@ -6657,7 +6632,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.4866735464275118</v>
       </c>
     </row>
@@ -6672,7 +6647,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.70303601268919191</v>
       </c>
     </row>
@@ -6687,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.5619201406346237</v>
       </c>
     </row>
@@ -6702,7 +6677,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.4968148866963924</v>
       </c>
     </row>
@@ -6717,7 +6692,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.48617648849133666</v>
       </c>
     </row>
@@ -6732,7 +6707,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.27612486119541924</v>
       </c>
     </row>
@@ -6747,7 +6722,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.21491099889290055</v>
       </c>
     </row>
@@ -6762,7 +6737,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.18335621803473057</v>
       </c>
     </row>
@@ -6777,7 +6752,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.13135511320192705</v>
       </c>
     </row>
@@ -6792,7 +6767,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -6807,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.48628451484987334</v>
       </c>
     </row>
@@ -6822,7 +6797,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.51914168000764871</v>
       </c>
     </row>
@@ -6837,7 +6812,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.59276799525232349</v>
       </c>
     </row>
@@ -6852,7 +6827,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.79094492383607218</v>
       </c>
     </row>
@@ -6867,7 +6842,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.83005605395269821</v>
       </c>
     </row>
@@ -6882,7 +6857,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.97710947190919484</v>
       </c>
     </row>
@@ -6897,7 +6872,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.0887234565388626</v>
       </c>
     </row>
@@ -6912,7 +6887,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.2703072781462774</v>
       </c>
     </row>
@@ -6927,7 +6902,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.248191020928247</v>
       </c>
     </row>
@@ -6942,7 +6917,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.5319591940588921</v>
       </c>
     </row>
@@ -6956,19 +6931,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C1550C-A687-1F4C-B1CF-385C504EB76C}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AB777E-FDB5-8245-B12A-0119F9312A11}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>26</v>
@@ -6980,7 +6958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -6991,11 +6969,11 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.81433486994811766</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>84</v>
       </c>
@@ -7006,11 +6984,11 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.6743991068975177</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -7021,11 +6999,11 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.52282174585131358</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
@@ -7036,11 +7014,11 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.26848965308108674</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>87</v>
       </c>
@@ -7051,11 +7029,11 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.17249257074655944</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
@@ -7066,11 +7044,11 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>7.5390223115253008E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>89</v>
       </c>
@@ -7081,11 +7059,11 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>6.963212764703286E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>90</v>
       </c>
@@ -7096,11 +7074,11 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>91</v>
       </c>
@@ -7111,11 +7089,11 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.23745899360540079</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -7126,11 +7104,11 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.39989987635313184</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -7141,11 +7119,11 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.4873843573871639</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -7156,9 +7134,71 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.0166932066703929</v>
       </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7167,10 +7207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40B850-24A5-B744-B565-6DDE1967C20F}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7436,7 +7476,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>501</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>23.020938851686001</v>
@@ -7453,35 +7493,18 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>22.384529263149499</v>
+        <v>11.244586011916899</v>
       </c>
       <c r="C17">
-        <v>2.1792177335957001</v>
+        <v>0.86653727451085505</v>
       </c>
       <c r="D17">
-        <v>0.93823752705337204</v>
+        <v>0.968826570447895</v>
       </c>
       <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>11.244586011916899</v>
-      </c>
-      <c r="C18">
-        <v>0.86653727451085505</v>
-      </c>
-      <c r="D18">
-        <v>0.968826570447895</v>
-      </c>
-      <c r="E18">
         <v>36</v>
       </c>
     </row>
@@ -7491,279 +7514,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AB777E-FDB5-8245-B12A-0119F9312A11}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="10">
-        <v>25891</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>0.73894464683286465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="10">
-        <v>22510</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>0.59900888378226469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="10">
-        <v>19344</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>0.44743152273606057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="10">
-        <v>15000</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>0.19309942996583374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="10">
-        <v>13627</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>9.7102347631306429E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="10">
-        <v>12366</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="10">
-        <v>12295</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>-5.7580954682201479E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="10">
-        <v>11468</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>-7.5390223115253008E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="10">
-        <v>9044</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>-0.3128492167206538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="10">
-        <v>7688</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>-0.47529009946838485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="10">
-        <v>7044</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>-0.56277458050241691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="10">
-        <v>4149</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
-        <v>-1.0920834297856459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EF3F34-E731-484E-9A2A-23C6EF8DAAA7}">
   <dimension ref="A1:D58"/>
   <sheetViews>
@@ -7800,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>4.0144240241406592</v>
       </c>
     </row>
@@ -7815,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>3.114649264053142</v>
       </c>
     </row>
@@ -7830,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.5375993710249301</v>
       </c>
     </row>
@@ -7845,7 +7595,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.5359139954370278</v>
       </c>
     </row>
@@ -7860,7 +7610,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.4038200370014646</v>
       </c>
     </row>
@@ -7875,7 +7625,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.2785089570095831</v>
       </c>
     </row>
@@ -7890,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0361605642781111</v>
       </c>
     </row>
@@ -7905,7 +7655,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.8870203745984089</v>
       </c>
     </row>
@@ -7920,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.8733519447466431</v>
       </c>
     </row>
@@ -7935,7 +7685,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.696703999529781</v>
       </c>
     </row>
@@ -7950,7 +7700,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6707089058908231</v>
       </c>
     </row>
@@ -7965,7 +7715,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6575929543211458</v>
       </c>
     </row>
@@ -7980,7 +7730,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6367050387744388</v>
       </c>
     </row>
@@ -7995,7 +7745,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.3876349255763341</v>
       </c>
     </row>
@@ -8010,7 +7760,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.3651786770198608</v>
       </c>
     </row>
@@ -8025,7 +7775,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.3649710659991214</v>
       </c>
     </row>
@@ -8040,7 +7790,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.1588223498331676</v>
       </c>
     </row>
@@ -8055,7 +7805,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.0688512979661748</v>
       </c>
     </row>
@@ -8070,7 +7820,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.89559014055332042</v>
       </c>
     </row>
@@ -8085,7 +7835,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.87702579010052517</v>
       </c>
     </row>
@@ -8100,7 +7850,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.66503205116824304</v>
       </c>
     </row>
@@ -8115,7 +7865,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.60604710784095595</v>
       </c>
     </row>
@@ -8130,7 +7880,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.60578097344151338</v>
       </c>
     </row>
@@ -8145,7 +7895,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.5922032749026851</v>
       </c>
     </row>
@@ -8160,7 +7910,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.50779665081164538</v>
       </c>
     </row>
@@ -8175,7 +7925,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.47668855234761942</v>
       </c>
     </row>
@@ -8190,7 +7940,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.47497094646942628</v>
       </c>
     </row>
@@ -8205,7 +7955,7 @@
         <v>28</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.43494497440618574</v>
       </c>
     </row>
@@ -8220,7 +7970,7 @@
         <v>29</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.30329131913477525</v>
       </c>
     </row>
@@ -8235,7 +7985,7 @@
         <v>30</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.21864564600935665</v>
       </c>
     </row>
@@ -8250,7 +8000,7 @@
         <v>31</v>
       </c>
       <c r="D32" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.13586606353221597</v>
       </c>
     </row>
@@ -8265,7 +8015,7 @@
         <v>32</v>
       </c>
       <c r="D33" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D33" ca="1">LN(B33)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>5.3193926066699149E-2</v>
       </c>
     </row>
@@ -8280,7 +8030,7 @@
         <v>33</v>
       </c>
       <c r="D34" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D34" ca="1">LN(B34)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>4.7162824510055046E-2</v>
       </c>
     </row>
@@ -8295,7 +8045,7 @@
         <v>34</v>
       </c>
       <c r="D35" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">LN(B35)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D35" ca="1">LN(B35)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.9643201229678553E-2</v>
       </c>
     </row>
@@ -8310,7 +8060,7 @@
         <v>35</v>
       </c>
       <c r="D36" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">LN(B36)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D36" ca="1">LN(B36)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6289369131248677E-2</v>
       </c>
     </row>
@@ -8325,7 +8075,7 @@
         <v>36</v>
       </c>
       <c r="D37" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">LN(B37)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D37" ca="1">LN(B37)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -8340,7 +8090,7 @@
         <v>37</v>
       </c>
       <c r="D38" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">LN(B38)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D38" ca="1">LN(B38)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.23479655039677816</v>
       </c>
     </row>
@@ -8355,7 +8105,7 @@
         <v>38</v>
       </c>
       <c r="D39" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">LN(B39)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D39" ca="1">LN(B39)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.29278994640573153</v>
       </c>
     </row>
@@ -8370,7 +8120,7 @@
         <v>39</v>
       </c>
       <c r="D40" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">LN(B40)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D40" ca="1">LN(B40)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.42716221171873769</v>
       </c>
     </row>
@@ -8385,7 +8135,7 @@
         <v>40</v>
       </c>
       <c r="D41" cm="1">
-        <f t="array" aca="1" ref="D41" ca="1">LN(B41)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D41" ca="1">LN(B41)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.55884372832658258</v>
       </c>
     </row>
@@ -8400,7 +8150,7 @@
         <v>41</v>
       </c>
       <c r="D42" cm="1">
-        <f t="array" aca="1" ref="D42" ca="1">LN(B42)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D42" ca="1">LN(B42)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.6445893314107245</v>
       </c>
     </row>
@@ -8415,7 +8165,7 @@
         <v>42</v>
       </c>
       <c r="D43" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">LN(B43)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D43" ca="1">LN(B43)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.69444884035974219</v>
       </c>
     </row>
@@ -8430,7 +8180,7 @@
         <v>43</v>
       </c>
       <c r="D44" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">LN(B44)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D44" ca="1">LN(B44)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.0135540372993628</v>
       </c>
     </row>
@@ -8445,7 +8195,7 @@
         <v>44</v>
       </c>
       <c r="D45" cm="1">
-        <f t="array" aca="1" ref="D45" ca="1">LN(B45)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D45" ca="1">LN(B45)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.0289042258369978</v>
       </c>
     </row>
@@ -8460,7 +8210,7 @@
         <v>45</v>
       </c>
       <c r="D46" cm="1">
-        <f t="array" aca="1" ref="D46" ca="1">LN(B46)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D46" ca="1">LN(B46)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4170050460358263</v>
       </c>
     </row>
@@ -8475,7 +8225,7 @@
         <v>46</v>
       </c>
       <c r="D47" cm="1">
-        <f t="array" aca="1" ref="D47" ca="1">LN(B47)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D47" ca="1">LN(B47)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.454590611192395</v>
       </c>
     </row>
@@ -8490,7 +8240,7 @@
         <v>47</v>
       </c>
       <c r="D48" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">LN(B48)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D48" ca="1">LN(B48)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.5074978740911069</v>
       </c>
     </row>
@@ -8505,7 +8255,7 @@
         <v>48</v>
       </c>
       <c r="D49" cm="1">
-        <f t="array" aca="1" ref="D49" ca="1">LN(B49)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D49" ca="1">LN(B49)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.7031233965114243</v>
       </c>
     </row>
@@ -8520,7 +8270,7 @@
         <v>49</v>
       </c>
       <c r="D50" cm="1">
-        <f t="array" aca="1" ref="D50" ca="1">LN(B50)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D50" ca="1">LN(B50)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.8922537952347094</v>
       </c>
     </row>
@@ -8535,7 +8285,7 @@
         <v>50</v>
       </c>
       <c r="D51" cm="1">
-        <f t="array" aca="1" ref="D51" ca="1">LN(B51)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D51" ca="1">LN(B51)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.2289418048635561</v>
       </c>
     </row>
@@ -8550,7 +8300,7 @@
         <v>51</v>
       </c>
       <c r="D52" cm="1">
-        <f t="array" aca="1" ref="D52" ca="1">LN(B52)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D52" ca="1">LN(B52)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.2928762788670856</v>
       </c>
     </row>
@@ -8565,7 +8315,7 @@
         <v>52</v>
       </c>
       <c r="D53" cm="1">
-        <f t="array" aca="1" ref="D53" ca="1">LN(B53)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D53" ca="1">LN(B53)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.597338176686379</v>
       </c>
     </row>
@@ -8580,7 +8330,7 @@
         <v>53</v>
       </c>
       <c r="D54" cm="1">
-        <f t="array" aca="1" ref="D54" ca="1">LN(B54)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D54" ca="1">LN(B54)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.7893131651809764</v>
       </c>
     </row>
@@ -8595,7 +8345,7 @@
         <v>54</v>
       </c>
       <c r="D55" cm="1">
-        <f t="array" aca="1" ref="D55" ca="1">LN(B55)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D55" ca="1">LN(B55)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-4.4901008562033047</v>
       </c>
     </row>
@@ -8610,7 +8360,7 @@
         <v>55</v>
       </c>
       <c r="D56" cm="1">
-        <f t="array" aca="1" ref="D56" ca="1">LN(B56)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D56" ca="1">LN(B56)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-5.9516186385607828</v>
       </c>
     </row>
@@ -8625,10 +8375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A664519-7511-4B4E-A7EE-5E7AB63B9059}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8721,7 +8471,7 @@
         <v>0.94</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" ca="1" si="0">(F3-1)/SUM(INDIRECT($A3&amp;"!D2:D"&amp;(2+$F3-1)))</f>
+        <f t="shared" ref="I3:I17" ca="1" si="0">(F3-1)/SUM(INDIRECT($A3&amp;"!D2:D"&amp;(2+$F3-1)))</f>
         <v>0.34483513005306848</v>
       </c>
     </row>
@@ -9087,7 +8837,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>501</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>4.6935812891716298</v>
@@ -9111,66 +8861,36 @@
         <v>0.98</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(F16-1)/SUM(INDIRECT($A16&amp;"!D2:D"&amp;(2+$F16-1)))</f>
         <v>2.6948363844763921</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>3.8986967534702099</v>
+        <v>1.8446401734422799</v>
       </c>
       <c r="C17">
-        <v>0.54433378035315805</v>
+        <v>0.16875564752452399</v>
       </c>
       <c r="D17">
-        <v>12366</v>
+        <v>6150</v>
       </c>
       <c r="E17">
-        <v>3102.0751274857398</v>
+        <v>2548.9897934814699</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G17">
-        <v>0.171410507100617</v>
+        <v>0.11725153473413701</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17" ca="1" si="1">(F17-1)/SUM(INDIRECT($A17&amp;"!D2:D"&amp;(2+$F17-1)))</f>
-        <v>2.4089572767791716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1.8446401734422799</v>
-      </c>
-      <c r="C18">
-        <v>0.16875564752452399</v>
-      </c>
-      <c r="D18">
-        <v>6150</v>
-      </c>
-      <c r="E18">
-        <v>2548.9897934814699</v>
-      </c>
-      <c r="F18">
-        <v>36</v>
-      </c>
-      <c r="G18">
-        <v>0.11725153473413701</v>
-      </c>
-      <c r="H18">
-        <v>0.81</v>
-      </c>
-      <c r="I18">
         <f t="shared" ca="1" si="0"/>
         <v>0.82123400361783272</v>
       </c>
@@ -9241,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>3.5618385803340775</v>
       </c>
     </row>
@@ -9256,7 +8976,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.5822115501129215</v>
       </c>
     </row>
@@ -9271,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.560287344355725</v>
       </c>
     </row>
@@ -9286,7 +9006,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.331240348754422</v>
       </c>
     </row>
@@ -9301,7 +9021,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.2789752273549126</v>
       </c>
     </row>
@@ -9316,7 +9036,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.7733744413140666</v>
       </c>
     </row>
@@ -9331,7 +9051,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.7271864944392554</v>
       </c>
     </row>
@@ -9346,7 +9066,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.4605961129467318</v>
       </c>
     </row>
@@ -9361,7 +9081,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.2711966701842066</v>
       </c>
     </row>
@@ -9376,7 +9096,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.97762645510720247</v>
       </c>
     </row>
@@ -9391,7 +9111,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.92000475657052583</v>
       </c>
     </row>
@@ -9406,7 +9126,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.73192056648590587</v>
       </c>
     </row>
@@ -9421,7 +9141,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.70585676816489507</v>
       </c>
     </row>
@@ -9436,7 +9156,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.67830895439368177</v>
       </c>
     </row>
@@ -9451,7 +9171,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.59593597013519251</v>
       </c>
     </row>
@@ -9466,7 +9186,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.55983724735388929</v>
       </c>
     </row>
@@ -9481,7 +9201,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.40184097781477313</v>
       </c>
     </row>
@@ -9496,7 +9216,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.35240226313295242</v>
       </c>
     </row>
@@ -9511,7 +9231,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.31690214042711595</v>
       </c>
     </row>
@@ -9526,7 +9246,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.11485022927576605</v>
       </c>
     </row>
@@ -9541,7 +9261,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>9.2593254127963931E-3</v>
       </c>
     </row>
@@ -9556,7 +9276,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -9571,7 +9291,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-9.3458624182378713E-3</v>
       </c>
     </row>
@@ -9586,7 +9306,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.16571600917917895</v>
       </c>
     </row>
@@ -9601,7 +9321,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.62860865942237432</v>
       </c>
     </row>
@@ -9616,7 +9336,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.91049361418982944</v>
       </c>
     </row>
@@ -9631,7 +9351,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.2707532855299464</v>
       </c>
     </row>
@@ -9685,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>5.7701162583451788</v>
       </c>
     </row>
@@ -9700,7 +9420,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>5.1429298109941639</v>
       </c>
     </row>
@@ -9715,7 +9435,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>3.9608131695975777</v>
       </c>
     </row>
@@ -9730,7 +9450,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.9759546459453166</v>
       </c>
     </row>
@@ -9745,7 +9465,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.1390852904406792</v>
       </c>
     </row>
@@ -9760,7 +9480,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.5546296759391058</v>
       </c>
     </row>
@@ -9775,7 +9495,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.87893494533038652</v>
       </c>
     </row>
@@ -9790,7 +9510,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.7770286645406479</v>
       </c>
     </row>
@@ -9805,7 +9525,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -9820,7 +9540,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.4916548767777167</v>
       </c>
     </row>
@@ -9835,7 +9555,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-2.3895964699836751</v>
       </c>
     </row>
@@ -9850,7 +9570,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-3.1780538303479453</v>
       </c>
     </row>
@@ -9918,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>6.2850445468729266</v>
       </c>
     </row>
@@ -9933,7 +9653,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.5266730800781252</v>
       </c>
     </row>
@@ -9948,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.307298377446144</v>
       </c>
     </row>
@@ -9963,7 +9683,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.3010090485385799</v>
       </c>
     </row>
@@ -9978,7 +9698,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0823899467641338</v>
       </c>
     </row>
@@ -9993,7 +9713,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0545274478713971</v>
       </c>
     </row>
@@ -10008,7 +9728,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0069978410351519</v>
       </c>
     </row>
@@ -10023,7 +9743,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.9984961957798308</v>
       </c>
     </row>
@@ -10038,7 +9758,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.8253110033992881</v>
       </c>
     </row>
@@ -10053,7 +9773,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.646536448043916</v>
       </c>
     </row>
@@ -10068,7 +9788,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6373900428178398</v>
       </c>
     </row>
@@ -10083,7 +9803,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.5410073125391346</v>
       </c>
     </row>
@@ -10098,7 +9818,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.5171153911144044</v>
       </c>
     </row>
@@ -10113,7 +9833,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.4855338190641048</v>
       </c>
     </row>
@@ -10128,7 +9848,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.0307436443934392</v>
       </c>
     </row>
@@ -10143,7 +9863,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.94882652192555295</v>
       </c>
     </row>
@@ -10158,7 +9878,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.88591269651498283</v>
       </c>
     </row>
@@ -10173,7 +9893,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.6931471805599454</v>
       </c>
     </row>
@@ -10188,7 +9908,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.49335099324272669</v>
       </c>
     </row>
@@ -10203,7 +9923,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.44407994423594399</v>
       </c>
     </row>
@@ -10218,7 +9938,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.40808634158803869</v>
       </c>
     </row>
@@ -10233,7 +9953,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.37616873861973321</v>
       </c>
     </row>
@@ -10248,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.27977689294466757</v>
       </c>
     </row>
@@ -10263,7 +9983,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.14624550032014483</v>
       </c>
     </row>
@@ -10278,7 +9998,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.14624550032014483</v>
       </c>
     </row>
@@ -10293,7 +10013,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>9.0286846672100296E-2</v>
       </c>
     </row>
@@ -10308,7 +10028,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -10323,7 +10043,7 @@
         <v>28</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.51345374617226014</v>
       </c>
     </row>
@@ -10338,7 +10058,7 @@
         <v>29</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.52669897292228107</v>
       </c>
     </row>
@@ -10353,7 +10073,7 @@
         <v>30</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.9538153285624267</v>
       </c>
     </row>
@@ -10368,7 +10088,7 @@
         <v>31</v>
       </c>
       <c r="D32" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D32" ca="1">LN(B32)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-4.8441870864585912</v>
       </c>
     </row>
@@ -10425,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.5266730800781252</v>
       </c>
     </row>
@@ -10440,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.307298377446144</v>
       </c>
     </row>
@@ -10455,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.3010090485385799</v>
       </c>
     </row>
@@ -10470,7 +10190,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0823899467641338</v>
       </c>
     </row>
@@ -10485,7 +10205,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0545274478713971</v>
       </c>
     </row>
@@ -10500,7 +10220,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.0069978410351519</v>
       </c>
     </row>
@@ -10515,7 +10235,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.9984961957798308</v>
       </c>
     </row>
@@ -10530,7 +10250,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.8253110033992881</v>
       </c>
     </row>
@@ -10545,7 +10265,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.646536448043916</v>
       </c>
     </row>
@@ -10560,7 +10280,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.6373900428178398</v>
       </c>
     </row>
@@ -10575,7 +10295,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.5410073125391346</v>
       </c>
     </row>
@@ -10590,7 +10310,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.5171153911144044</v>
       </c>
     </row>
@@ -10605,7 +10325,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.4855338190641048</v>
       </c>
     </row>
@@ -10620,7 +10340,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.0307436443934392</v>
       </c>
     </row>
@@ -10635,7 +10355,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.94882652192555295</v>
       </c>
     </row>
@@ -10650,7 +10370,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.88591269651498283</v>
       </c>
     </row>
@@ -10665,7 +10385,7 @@
         <v>17</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D18" ca="1">LN(B18)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.6931471805599454</v>
       </c>
     </row>
@@ -10680,7 +10400,7 @@
         <v>18</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D19" ca="1">LN(B19)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.49335099324272669</v>
       </c>
     </row>
@@ -10695,7 +10415,7 @@
         <v>19</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D20" ca="1">LN(B20)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.44407994423594399</v>
       </c>
     </row>
@@ -10710,7 +10430,7 @@
         <v>20</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D21" ca="1">LN(B21)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.40808634158803869</v>
       </c>
     </row>
@@ -10725,7 +10445,7 @@
         <v>21</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D22" ca="1">LN(B22)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.37616873861973321</v>
       </c>
     </row>
@@ -10740,7 +10460,7 @@
         <v>22</v>
       </c>
       <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D23" ca="1">LN(B23)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.27977689294466757</v>
       </c>
     </row>
@@ -10755,7 +10475,7 @@
         <v>23</v>
       </c>
       <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D24" ca="1">LN(B24)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.14624550032014483</v>
       </c>
     </row>
@@ -10770,7 +10490,7 @@
         <v>24</v>
       </c>
       <c r="D25" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D25" ca="1">LN(B25)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.14624550032014483</v>
       </c>
     </row>
@@ -10785,7 +10505,7 @@
         <v>25</v>
       </c>
       <c r="D26" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D26" ca="1">LN(B26)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>9.0286846672100296E-2</v>
       </c>
     </row>
@@ -10800,7 +10520,7 @@
         <v>26</v>
       </c>
       <c r="D27" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D27" ca="1">LN(B27)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -10815,7 +10535,7 @@
         <v>27</v>
       </c>
       <c r="D28" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D28" ca="1">LN(B28)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.51345374617226014</v>
       </c>
     </row>
@@ -10830,7 +10550,7 @@
         <v>28</v>
       </c>
       <c r="D29" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D29" ca="1">LN(B29)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.52669897292228107</v>
       </c>
     </row>
@@ -10845,7 +10565,7 @@
         <v>29</v>
       </c>
       <c r="D30" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D30" ca="1">LN(B30)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.9538153285624267</v>
       </c>
     </row>
@@ -10860,7 +10580,7 @@
         <v>30</v>
       </c>
       <c r="D31" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D31" ca="1">LN(B31)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-4.8441870864585912</v>
       </c>
     </row>
@@ -10913,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">LN(B2)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.8517507605477235</v>
       </c>
     </row>
@@ -10928,7 +10648,7 @@
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">LN(B3)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.6158754242029527</v>
       </c>
     </row>
@@ -10943,7 +10663,7 @@
         <v>3</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">LN(B4)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>2.5667233938585525</v>
       </c>
     </row>
@@ -10958,7 +10678,7 @@
         <v>4</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">LN(B5)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.4435994778134731</v>
       </c>
     </row>
@@ -10973,7 +10693,7 @@
         <v>5</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">LN(B6)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>1.258558793903692</v>
       </c>
     </row>
@@ -10988,7 +10708,7 @@
         <v>6</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">LN(B7)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.9006765040726048</v>
       </c>
     </row>
@@ -11003,7 +10723,7 @@
         <v>7</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D8" ca="1">LN(B8)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.8958963802478852</v>
       </c>
     </row>
@@ -11018,7 +10738,7 @@
         <v>8</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D9" ca="1">LN(B9)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.64793043632026048</v>
       </c>
     </row>
@@ -11033,7 +10753,7 @@
         <v>9</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D10" ca="1">LN(B10)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.62432196772038218</v>
       </c>
     </row>
@@ -11048,7 +10768,7 @@
         <v>10</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D11" ca="1">LN(B11)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.19328110360302375</v>
       </c>
     </row>
@@ -11063,7 +10783,7 @@
         <v>11</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D12" ca="1">LN(B12)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0.13928554123639714</v>
       </c>
     </row>
@@ -11078,7 +10798,7 @@
         <v>12</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D13" ca="1">LN(B13)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>4.1009770316506433E-2</v>
       </c>
     </row>
@@ -11093,7 +10813,7 @@
         <v>13</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D14" ca="1">LN(B14)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>0</v>
       </c>
     </row>
@@ -11108,7 +10828,7 @@
         <v>14</v>
       </c>
       <c r="D15" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D15" ca="1">LN(B15)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.44374729467918161</v>
       </c>
     </row>
@@ -11123,7 +10843,7 @@
         <v>15</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D16" ca="1">LN(B16)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-0.89634236049665272</v>
       </c>
     </row>
@@ -11138,7 +10858,7 @@
         <v>16</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$18,6,0)+1))</f>
+        <f t="array" aca="1" ref="D17" ca="1">LN(B17)-LN(INDIRECT("B"&amp;VLOOKUP(LEFT($A$1,FIND(" ", $A$1)-1),x_min!$A$2:$I$17,6,0)+1))</f>
         <v>-1.2586488006726295</v>
       </c>
     </row>
